--- a/biology/Zoologie/Hibernation/Hibernation.xlsx
+++ b/biology/Zoologie/Hibernation/Hibernation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hibernation est un état d’hypothermie régulée, durant plusieurs jours ou semaines qui permet aux animaux de conserver leur énergie pendant l’hiver. Durant l’hibernation, les animaux ralentissent leur métabolisme jusqu’à des niveaux très bas, abaissant graduellement la température de leur corps et leur taux respiratoire, et puisent dans les réserves de graisse du corps qui ont été stockées pendant les mois actifs.
 L’hibernation fait partie des stratégies d'adaptation au froid, avec la migration, la résistance au froid (fourrure du castor d'Europe, réserves de graisse du renard polaire, cryoconservation naturelle), le cycle de vie de l'insecte qui permet de passer, selon les espèces, à l'état d'œuf, de larve protégée parfois par un cocon ou un fourreau, ou de nymphe.
@@ -515,15 +527,17 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue trois grands types de ralentissement ou de cessation durant l'hiver des activités chez les homéothermes, dont seul le dernier peut être qualifié d'hibernation proprement dite :
 la torpeur est un état physiologique qui s’arrête dès que l’air se réchauffe, c’est-à-dire que lorsque la température extérieure augmente, l’animal réajuste sa température interne en la diminuant légèrement afin de ne pas gaspiller d’énergie pour se réchauffer. Les oiseaux et certaines chauves-souris connaissent cet état. Certains oiseaux ou certains chiroptères peuvent ainsi entrer dans un état de torpeur quotidienne[réf. nécessaire] ;
 la somnolence hivernale (ou hivernation) des carnivores comme l’ours et le blaireau, entrecoupée de nombreux réveils et accompagnée d’une hypothermie modérée, n’entraîne pas une interruption de toutes les activités physiologiques. Ainsi, l’ourse donne naissance aux petits pendant l’hiver. Les organes vitaux restent à une température normale pour réagir en cas de danger[réf. nécessaire] ;
-l’hibernation est une léthargie et une diminution profonde de la température de l’animal. Cette température est toujours positive mais elle peut approcher de 0 °C (3,5 °C chez le spermophile[1], −2,9 °C au niveau de la température abdominale du spermophile arctique[2]). Les animaux hibernant réellement sont par exemple les loirs, les marmottes et certaines chauves-souris[3].
+l’hibernation est une léthargie et une diminution profonde de la température de l’animal. Cette température est toujours positive mais elle peut approcher de 0 °C (3,5 °C chez le spermophile, −2,9 °C au niveau de la température abdominale du spermophile arctique). Les animaux hibernant réellement sont par exemple les loirs, les marmottes et certaines chauves-souris.
 La grande majorité des mammifères est obligée de maintenir une température constante dans un environnement froid en régulant sa température par des processus physiologiques nommés thermogenèse.[réf. nécessaire]
-Un état similaire en été est l'estivation (sommeil de l'été), adoptée par exemple par le crocodile du Nil qui s'enterre dans la boue pendant la période chaude[4].
-Le plus ancien animal connu ayant peut-être été capable d'hiberner est Lystrosaurus, un thérapside endotherme ayant vécu entre le Permien supérieur et le Trias moyen[5],[6].
+Un état similaire en été est l'estivation (sommeil de l'été), adoptée par exemple par le crocodile du Nil qui s'enterre dans la boue pendant la période chaude.
+Le plus ancien animal connu ayant peut-être été capable d'hiberner est Lystrosaurus, un thérapside endotherme ayant vécu entre le Permien supérieur et le Trias moyen,.
 </t>
         </is>
       </c>
@@ -552,7 +566,9 @@
           <t>Les catégories d’hibernants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les hibernants opportunistes hibernent n’importe quand dès que la température extérieure est inférieure à 6 °C pendant 48 heures. Leur aptitude à hiberner est meilleure en hiver, c’est-à-dire à partir du mois de septembre.
 Les hibernants saisonniers, par exemple le spermophile (écureuil américain), ne sont capables d’hiberner qu’entre mi-novembre et mi-février. En dehors de cette période, même si les conditions sont défavorables, l’animal n'hiberne pas.</t>
@@ -583,7 +599,9 @@
           <t>L’entrée en hibernation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs mois avant la période d’hibernation, les hibernants stockent et consomment énormément de nourriture. Par exemple, le spermophile passe de 150 grammes de masse corporelle à 350 grammes. Les réserves sont essentiellement des réserves lipidiques stockées sous la peau.
 Les hibernants aménagent ensuite leur terrier que l’on nomme un hibernaculum, choisi pour éviter des variations thermiques importantes. Les animaux se mettent dans une position qui garde le maximum de chaleur, généralement en boule.
@@ -616,7 +634,9 @@
           <t>Physiologie au cours de l’hibernation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La diminution de la température interne entraîne un ajustement des différentes fonctions. Le métabolisme diminue de 98 %.
 Il y a une diminution :
@@ -626,7 +646,7 @@
 du flux sanguin (il y a une irrigation particulière au niveau du cerveau, du cœur et du tissu adipeux),
 du taux d’hormones de croissance.
 Le système nerveux est réactionnel. Cependant, seules les aires cérébrales jouant un rôle dans les fonctions végétatives autonomes (comme la respiration) restent véritablement actives. Les autres régions ne montrent pas d'activité corticale spontanée. Mais l’animal réagit aux bruits, au toucher, etc.
-En dessous d'une température corporelle de 25°, l'électroencéphalogramme est plat[7].
+En dessous d'une température corporelle de 25°, l'électroencéphalogramme est plat.
 La diminution de la vitesse de circulation du sang nécessite un abaissement de sa coagulabilité pour éviter le risque de formation de caillot. Ceci se fait par une baisse du taux de plaquettes et des facteurs de la coagulation.
 Les périodes de sommeil sont caractérisées du point de vue respiratoire, par des bouffées de cycles respiratoires entrecoupées d'apnées prolongées (jusqu'à une heure chez le hérisson ou le lérot). Les faibles échanges gazeux au niveau des poumons contribuent à l'accumulation dans l'organisme de dioxyde de carbone dissout, ce qui acidifie le sang (on parle d'acidose respiratoire).
 Au cours de l’hibernation, il y a des réveils périodiques à des moments variables, mais très rares, et de plus en plus fréquents quand on arrive à la fin de l’hibernation. Le réveil dure quelques heures et correspond à une remontée de température rapide. Ceci pour tous les hibernants, avec une périodicité variable. Par exemple le hamster doré se réveille tous les 3 à 5 jours alors que le spermophile se réveille tous les 15 jours. Pendant ces réveils, l’animal tourne dans l’hibernaculum, mange, urine et se rendort. Des expériences d’ablation des neurones de l’hypothalamus ont montré une suppression de ces réveils et une mort de l’animal. Ces réveils sont donc fondamentaux, ils permettent notamment d’éliminer les déchets du métabolisme dont l’accumulation est très toxique. Ces réveils font intervenir la thermogenèse dite sans frisson, c’est-à-dire en utilisant le tissu adipeux brun. 90 % de la perte de poids pendant l’hibernation est due à ces phases de réveil.
@@ -661,14 +681,89 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horloge interne
-Pour les hibernants saisonniers, même si la température extérieure reste élevée, l’animal entre en hibernation. En captivité et en absence de stimulus extérieur, il y a toujours un phénomène d’hibernation mais le cycle commence de plus en plus tôt dans l’année. C’est un rythme d’hibernation endogène mais dans les conditions naturelles, l’entrée en hibernation est resynchronisée par les conditions extérieures pour débuter et finir aux moments stratégiques.
-Facteurs externes ou exogènes
-Les facteurs comme la photopériode et la température synchronisent ces rythmes[8]. Pour une même espèce, l’entrée en hibernation est plus précoce quand la population est plus nordique ou plus haute en altitude.
-Le type d'acide gras consommé influence le métabolisme et la durée de l'hibernation[9]. Les graisses polyinsaturées stimulant/allongeant l'hibernation[10],[11]; alors que les graisses saturées réduisent l'hibernation[12].
-Les graisses de type n-3 PUFA (graisse polyinsaturées riche en omega 3) réduisent l'hibernation alors que les n-6 PUFA (graisse polyinsaturée riche en omega 6) promeuvent l'hibernation[13].
-Facteurs internes ou endogènes
-Les facteurs internes tels que la baisse des réserves internes ou un facteur sanguin ont été mis en évidence. En injectant le sang d’un spermophile hibernant dans un spermophile non hibernant, on constate qu'il devient hibernant. Les facteurs internes d’hibernation circulent donc dans le sang (ces facteurs sont encore mal connus)[8].
+          <t>Horloge interne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les hibernants saisonniers, même si la température extérieure reste élevée, l’animal entre en hibernation. En captivité et en absence de stimulus extérieur, il y a toujours un phénomène d’hibernation mais le cycle commence de plus en plus tôt dans l’année. C’est un rythme d’hibernation endogène mais dans les conditions naturelles, l’entrée en hibernation est resynchronisée par les conditions extérieures pour débuter et finir aux moments stratégiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hibernation</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Contrôle de l’hibernation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Facteurs externes ou exogènes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les facteurs comme la photopériode et la température synchronisent ces rythmes. Pour une même espèce, l’entrée en hibernation est plus précoce quand la population est plus nordique ou plus haute en altitude.
+Le type d'acide gras consommé influence le métabolisme et la durée de l'hibernation. Les graisses polyinsaturées stimulant/allongeant l'hibernation,; alors que les graisses saturées réduisent l'hibernation.
+Les graisses de type n-3 PUFA (graisse polyinsaturées riche en omega 3) réduisent l'hibernation alors que les n-6 PUFA (graisse polyinsaturée riche en omega 6) promeuvent l'hibernation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hibernation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Contrôle de l’hibernation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Facteurs internes ou endogènes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les facteurs internes tels que la baisse des réserves internes ou un facteur sanguin ont été mis en évidence. En injectant le sang d’un spermophile hibernant dans un spermophile non hibernant, on constate qu'il devient hibernant. Les facteurs internes d’hibernation circulent donc dans le sang (ces facteurs sont encore mal connus).
 Selon des études récentes, l'aire pré-optique de l'hypothalamus permet la baisse du point de consigne de l'organisme jusqu'à 2 °C chez certaines espèces.
 Le système reproducteur serait également impliqué dans l'inhibition de l'hibernation. Expérimentalement, l'injection de testostérone provoque la fin de l'hibernation.
 Au niveau du foie sont produites des protéines formant un complexe : HPc (complexe des protéines d'hibernation). Ce complexe est composé des protéines HP20, HP22, HP27 et HP55. Une diminution du taux sanguin de ces HPc précède l'hibernation. Le cycle est inversé au niveau du liquide céphalo-rachidien (LCR) : en effet, le maximum du taux de HPc y est atteint pendant l'hibernation. Notons également que la protéine HP50 n'est jamais présente dans le liquide céphalo-rachidien, mais celui-ci contient la HP20. Cette protéine passerait du sang vers le LCR au niveau du plexus choroïde, la région du cerveau où ce liquide est produit.
@@ -676,72 +771,216 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hibernation</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hibernation</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>L'hibernation au niveau cellulaire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les processus cellulaires sont stoppés ou tout au moins fortement ralentis de plusieurs manières :
 comme le repos en hibernation
-Phosphorylation de certains composants
-Des groupes phosphoryles se fixent sur les pompes à sodium et sur les pompes à potassium, empêchant ainsi les échanges de ces ions entre les compartiments intracellulaires et extracellulaires. De plus, des groupements phosphoryles s'attachent aux ribosomes, ce qui bloque la biosynthèse des protéines.
-Source d'énergie cellulaire pendant l'hibernation
-Alors que l'énergie cellulaire est en temps normal principalement tirée de l'oxydation de molécules de glucose, ce sont les lipides qui deviennent la source d'énergie prioritaire pendant l'hibernation.
-Ralentissement de la transcription de l'ADN
-Une acétylase favorise la transition des histones de leur état acétylé vers l'état désacétylé. Ceci provoque une condensation accrue de l'ADN, qui s'enroule alors plus étroitement autour des histones, et rend les gènes beaucoup moins accessibles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hibernation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>L'hibernation au niveau cellulaire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Phosphorylation de certains composants</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des groupes phosphoryles se fixent sur les pompes à sodium et sur les pompes à potassium, empêchant ainsi les échanges de ces ions entre les compartiments intracellulaires et extracellulaires. De plus, des groupements phosphoryles s'attachent aux ribosomes, ce qui bloque la biosynthèse des protéines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hibernation</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>L'hibernation au niveau cellulaire</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Source d'énergie cellulaire pendant l'hibernation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors que l'énergie cellulaire est en temps normal principalement tirée de l'oxydation de molécules de glucose, ce sont les lipides qui deviennent la source d'énergie prioritaire pendant l'hibernation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hibernation</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>L'hibernation au niveau cellulaire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ralentissement de la transcription de l'ADN</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une acétylase favorise la transition des histones de leur état acétylé vers l'état désacétylé. Ceci provoque une condensation accrue de l'ADN, qui s'enroule alors plus étroitement autour des histones, et rend les gènes beaucoup moins accessibles.
 En outre, les ARN polymérases ne sont plus actives, ce qui réduit encore les possibilités de transcription.
-Origine cellulaire de la diminution de température corporelle
-Dans les tissus adipeux bruns, la membrane interne des mitochondries possède des protéines découplantes qui laissent passer facilement les protons, permettant ainsi de diminuer le gradient de concentration entre les deux compartiments situés de part et d'autre de cette membrane. Une moins grande quantité d'ATP est ainsi produite par l'ATPase. Le flux de protons alimente donc principalement l'élévation de la température par les protéines découplantes. Lors de l'hibernation, l'activité de ces protéines découplantes est diminuée.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Hibernation</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hibernation</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>L'hibernation au niveau cellulaire</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Origine cellulaire de la diminution de température corporelle</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les tissus adipeux bruns, la membrane interne des mitochondries possède des protéines découplantes qui laissent passer facilement les protons, permettant ainsi de diminuer le gradient de concentration entre les deux compartiments situés de part et d'autre de cette membrane. Une moins grande quantité d'ATP est ainsi produite par l'ATPase. Le flux de protons alimente donc principalement l'élévation de la température par les protéines découplantes. Lors de l'hibernation, l'activité de ces protéines découplantes est diminuée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hibernation</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Sortie de l’hibernation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">La sortie de l’hibernation se caractérise par un réchauffement rapide des différentes parties du corps, une augmentation de la fréquence cardiaque, etc. Ces mécanismes sont plus rapides que ceux de l’entrée en hibernation.
 Tout est rétabli en quelques heures.
@@ -752,62 +991,66 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Hibernation</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hibernation</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Les adaptations membranaires lors de l’hibernation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">La membrane des cellules animales est formée d’une bicouche lipidique fluide à température normale. Le froid quand la température approche de 0 °C entraîne une disparition de la fluidité de la membrane sauf chez les hibernants car les lipides de leurs membranes ont des acides gras insaturés en concentration supérieure à celle des non-hibernants. De plus ces derniers possèdent des protéines « chaperones » protégeant les lipides d’une modification de leur phase (les acides gras gardent leur fluidité dans la membrane).
 </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Hibernation</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hibernation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Caractéristiques énergétiques des hibernants</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hibernants sont généralement des animaux de taille moyenne.
 S’ils sont trop petits, ils possèdent un métabolisme très élevé qui empêche des longues périodes d’hibernation, car même avec un rythme cardiaque plus faible, les réserves seraient insuffisantes.
@@ -817,65 +1060,69 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Hibernation</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hibernation</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Intérêt en médecine</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Le refroidissement permet une survie plus longue en cas de noyade par exemple, ce qui autorise une réanimation même après un arrêt cardiaque prolongé. La préservation des tissus par le refroidissement est aussi mise à profit pour les transplantations, que ce soit pour le transport des organes, ou pour le receveur dans le cas de transplantation cardiaque, qui nécessite une interruption provisoire de la circulation sanguine.
 </t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Hibernation</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hibernation</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibernation</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Hibernation chez l'homme</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Des paysans russes auraient pratiqué une sorte d'hibernation appelée « lotska » ou « liojka » (« couchée ») à cause de la famine, réduisant au strict minimum leur activité physique pendant 4 à 6 mois de l'année[14],[15],[16].
-L'homme aurait gardé certains processus d'hibernation[17],[18]. En 2006, un promeneur japonais blessé dans la montagne aurait survécu grâce à ce processus[19].</t>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Des paysans russes auraient pratiqué une sorte d'hibernation appelée « lotska » ou « liojka » (« couchée ») à cause de la famine, réduisant au strict minimum leur activité physique pendant 4 à 6 mois de l'année.
+L'homme aurait gardé certains processus d'hibernation,. En 2006, un promeneur japonais blessé dans la montagne aurait survécu grâce à ce processus.</t>
         </is>
       </c>
     </row>
